--- a/State Excels/Pennsylvania.xlsx
+++ b/State Excels/Pennsylvania.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\CollegeApartmentScraper\State Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA48E3B-BFFE-4227-88F9-7383D45E3722}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF128E65-4AF9-474F-A63D-CA3CF06DFB7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2415" windowWidth="13170" windowHeight="11400" firstSheet="1" activeTab="2" xr2:uid="{20BDC0B7-51D7-4D0C-BB26-AE8BE7DD26E2}"/>
+    <workbookView xWindow="1110" yWindow="1140" windowWidth="14190" windowHeight="13950" firstSheet="3" activeTab="4" xr2:uid="{20BDC0B7-51D7-4D0C-BB26-AE8BE7DD26E2}"/>
   </bookViews>
   <sheets>
     <sheet name="University of Pennsylvania" sheetId="2" r:id="rId1"/>
     <sheet name="Temple University" sheetId="3" r:id="rId2"/>
     <sheet name="Drexel University" sheetId="4" r:id="rId3"/>
+    <sheet name="University of Pittsburgh" sheetId="5" r:id="rId4"/>
+    <sheet name="Carnegie Mellon University" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="267">
   <si>
     <t>267-414-1137</t>
   </si>
@@ -585,6 +587,255 @@
   </si>
   <si>
     <t>Distance From Drexel University</t>
+  </si>
+  <si>
+    <t>412-499-3063</t>
+  </si>
+  <si>
+    <t>1035 Chislett St, Pittsburgh, PA 15206</t>
+  </si>
+  <si>
+    <t>1035 Chislett St Unit 3</t>
+  </si>
+  <si>
+    <t>412-433-0365</t>
+  </si>
+  <si>
+    <t>226 S Pacific Ave, Pittsburgh, PA 15224</t>
+  </si>
+  <si>
+    <t>226 S Pacific Ave Unit 2F</t>
+  </si>
+  <si>
+    <t>412-727-8501</t>
+  </si>
+  <si>
+    <t>10 Cable Pl, Pittsburgh, PA 15213</t>
+  </si>
+  <si>
+    <t>10 Cable Pl</t>
+  </si>
+  <si>
+    <t>412-837-3393</t>
+  </si>
+  <si>
+    <t>410-416 N Craig St, Pittsburgh, PA 15213</t>
+  </si>
+  <si>
+    <t>LUNA Lofts</t>
+  </si>
+  <si>
+    <t>844-814-6608</t>
+  </si>
+  <si>
+    <t>141 41st St, Pittsburgh, PA 15201</t>
+  </si>
+  <si>
+    <t>Catalyst Lofts</t>
+  </si>
+  <si>
+    <t>1030 5th Ave, Pittsburgh, PA 15219</t>
+  </si>
+  <si>
+    <t>Union on 5th Avenue</t>
+  </si>
+  <si>
+    <t>484-801-0113</t>
+  </si>
+  <si>
+    <t>422-440 1st Ave, Pittsburgh, PA 15219</t>
+  </si>
+  <si>
+    <t>1st Ave Lofts</t>
+  </si>
+  <si>
+    <t>412-532-1006</t>
+  </si>
+  <si>
+    <t>3010 Jane St, Pittsburgh, PA 15203</t>
+  </si>
+  <si>
+    <t>Print Shop Lofts</t>
+  </si>
+  <si>
+    <t>844-219-2318</t>
+  </si>
+  <si>
+    <t>5506 5th Ave, Pittsburgh, PA 15232</t>
+  </si>
+  <si>
+    <t>The Royal Plaza Rockwel Realty Leasing</t>
+  </si>
+  <si>
+    <t>844-723-3301</t>
+  </si>
+  <si>
+    <t>121 7th St, Pittsburgh, PA 15222</t>
+  </si>
+  <si>
+    <t>Aria Cultural District Lofts</t>
+  </si>
+  <si>
+    <t>844-885-7665</t>
+  </si>
+  <si>
+    <t>211 Forbes Ave, Pittsburgh, PA 15222</t>
+  </si>
+  <si>
+    <t>Market Square Place</t>
+  </si>
+  <si>
+    <t>844-280-5364</t>
+  </si>
+  <si>
+    <t>2633 Fifth Ave, Pittsburgh, PA 15213</t>
+  </si>
+  <si>
+    <t>Portal Place</t>
+  </si>
+  <si>
+    <t>1655 5th Ave, Pittsburgh, PA 15219</t>
+  </si>
+  <si>
+    <t>Flats on Fifth</t>
+  </si>
+  <si>
+    <t>319 Third Ave, Pittsburgh, PA 15222</t>
+  </si>
+  <si>
+    <t>Keystone Flats - Now Leasing For Fall</t>
+  </si>
+  <si>
+    <t>412-567-4141</t>
+  </si>
+  <si>
+    <t>2404 Railroad St, Pittsburgh, PA 15222</t>
+  </si>
+  <si>
+    <t>Lot 24 Apartments</t>
+  </si>
+  <si>
+    <t>844-762-5514</t>
+  </si>
+  <si>
+    <t>5522 Baum Blvd, Pittsburgh, PA 15232</t>
+  </si>
+  <si>
+    <t>Ollie at Baumhaus</t>
+  </si>
+  <si>
+    <t>412-307-7720</t>
+  </si>
+  <si>
+    <t>4101 Bigelow Blvd, Pittsburgh, PA 15213</t>
+  </si>
+  <si>
+    <t>Schenley Apartments</t>
+  </si>
+  <si>
+    <t>412-437-2173</t>
+  </si>
+  <si>
+    <t>4107 Willow St, Pittsburgh, PA 15201</t>
+  </si>
+  <si>
+    <t>The Foundry at 41st</t>
+  </si>
+  <si>
+    <t>844-831-9422</t>
+  </si>
+  <si>
+    <t>3922 Foster St, Pittsburgh, PA 15201</t>
+  </si>
+  <si>
+    <t>Arsenal 201</t>
+  </si>
+  <si>
+    <t>412-847-5081</t>
+  </si>
+  <si>
+    <t>300 Heinz St, Pittsburgh, PA 15212</t>
+  </si>
+  <si>
+    <t>Heinz Lofts</t>
+  </si>
+  <si>
+    <t>866-626-1231</t>
+  </si>
+  <si>
+    <t>2349 Railroad St, Pittsburgh, PA 15222</t>
+  </si>
+  <si>
+    <t>The Cork Factory Lofts</t>
+  </si>
+  <si>
+    <t>844-750-1008</t>
+  </si>
+  <si>
+    <t>2645 Railroad St, Pittsburgh, PA 15222</t>
+  </si>
+  <si>
+    <t>The Yards at 3 Crossings</t>
+  </si>
+  <si>
+    <t>844-459-8552</t>
+  </si>
+  <si>
+    <t>400 5th Ave, Pittsburgh, PA 15219</t>
+  </si>
+  <si>
+    <t>Kaufmann's Grand on Fifth Avenue</t>
+  </si>
+  <si>
+    <t>412-533-2310</t>
+  </si>
+  <si>
+    <t>4500 Centre Ave, Pittsburgh, PA 15213</t>
+  </si>
+  <si>
+    <t>One on Centre</t>
+  </si>
+  <si>
+    <t>412-532-1007</t>
+  </si>
+  <si>
+    <t>1420 Centre Ave, Pittsburgh, PA 15219</t>
+  </si>
+  <si>
+    <t>City View</t>
+  </si>
+  <si>
+    <t>844-823-6344</t>
+  </si>
+  <si>
+    <t>272 Shady Ave, Pittsburgh, PA 15206</t>
+  </si>
+  <si>
+    <t>Franklin West Apartments, Leasing Office</t>
+  </si>
+  <si>
+    <t>844-829-9060</t>
+  </si>
+  <si>
+    <t>275 Oakville Dr, Pittsburgh, PA 15220</t>
+  </si>
+  <si>
+    <t>Hyland Hills Apartments</t>
+  </si>
+  <si>
+    <t>844-743-7158</t>
+  </si>
+  <si>
+    <t>10 Allegheny Ctr, Pittsburgh, PA 15212</t>
+  </si>
+  <si>
+    <t>Park View Apartments</t>
+  </si>
+  <si>
+    <t>Distance From University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>Distance From Carnegie Mellon University</t>
   </si>
 </sst>
 </file>
@@ -3248,7 +3499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A466ED34-4E3B-4EDC-8E7C-7688136FFFE7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4448,4 +4699,1271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C64E6A-CB79-4076-94F8-8C0A6CC9129E}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2">
+        <v>809</v>
+      </c>
+      <c r="C2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2">
+        <v>40.452936700000002</v>
+      </c>
+      <c r="G2">
+        <v>-80.006343799999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3">
+        <v>476</v>
+      </c>
+      <c r="C3">
+        <v>4.47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3">
+        <v>40.419389899999999</v>
+      </c>
+      <c r="G3">
+        <v>-80.039213500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4">
+        <v>427</v>
+      </c>
+      <c r="C4">
+        <v>2.21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4">
+        <v>40.457278449999997</v>
+      </c>
+      <c r="G4">
+        <v>-79.922635499334305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5">
+        <v>392</v>
+      </c>
+      <c r="C5">
+        <v>1.38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5">
+        <v>40.44040115</v>
+      </c>
+      <c r="G5">
+        <v>-79.986525223088606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>329</v>
+      </c>
+      <c r="C6">
+        <v>0.64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>40.451455000000003</v>
+      </c>
+      <c r="G6">
+        <v>-79.953158000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7">
+        <v>311</v>
+      </c>
+      <c r="C7">
+        <v>0.68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G7">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>1.31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8">
+        <v>40.456786910887999</v>
+      </c>
+      <c r="G8">
+        <v>-79.9794936168839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>1.36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9">
+        <v>40.454374265181897</v>
+      </c>
+      <c r="G9">
+        <v>-79.982973096951696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10">
+        <v>268</v>
+      </c>
+      <c r="C10">
+        <v>1.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10">
+        <v>40.454095000000002</v>
+      </c>
+      <c r="G10">
+        <v>-79.991095999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11">
+        <v>243</v>
+      </c>
+      <c r="C11">
+        <v>1.78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11">
+        <v>40.469953199999999</v>
+      </c>
+      <c r="G11">
+        <v>-79.963535699999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12">
+        <v>182</v>
+      </c>
+      <c r="C12">
+        <v>1.93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12">
+        <v>40.472145449999999</v>
+      </c>
+      <c r="G12">
+        <v>-79.964096754230098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13">
+        <v>180</v>
+      </c>
+      <c r="C13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13">
+        <v>40.450834</v>
+      </c>
+      <c r="G13">
+        <v>-79.954847999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14">
+        <v>127</v>
+      </c>
+      <c r="C14">
+        <v>1.57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14">
+        <v>40.4573252</v>
+      </c>
+      <c r="G14">
+        <v>-79.936371497774402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>1.33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15">
+        <v>40.454782531745302</v>
+      </c>
+      <c r="G15">
+        <v>-79.982086957673005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>2.14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16">
+        <v>40.438761499999998</v>
+      </c>
+      <c r="G16">
+        <v>-80.0008184777341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>0.68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G17">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18">
+        <v>40.436892612373903</v>
+      </c>
+      <c r="G18">
+        <v>-79.965989465151395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19">
+        <v>40.440604200000003</v>
+      </c>
+      <c r="G19">
+        <v>-80.001890849999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>2.11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20">
+        <v>40.444140387937402</v>
+      </c>
+      <c r="G20">
+        <v>-80.000940310841003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>0.68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G21">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>1.46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22">
+        <v>40.423293357497101</v>
+      </c>
+      <c r="G22">
+        <v>-79.964867463018905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0.68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G24">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>1.84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25">
+        <v>40.470880650447398</v>
+      </c>
+      <c r="G25">
+        <v>-79.963100813672099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27">
+        <v>0.64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27">
+        <v>40.437005599999999</v>
+      </c>
+      <c r="G27">
+        <v>-79.953420600000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28">
+        <v>1.71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28">
+        <v>40.463400711845097</v>
+      </c>
+      <c r="G28">
+        <v>-79.940305391066801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29">
+        <v>2.77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29">
+        <v>40.476632702855198</v>
+      </c>
+      <c r="G29">
+        <v>-79.929745553821704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8CC73B-D6A7-4C6C-B01C-CC94A6C29CD9}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2">
+        <v>809</v>
+      </c>
+      <c r="C2">
+        <v>3.41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2">
+        <v>40.452936700000002</v>
+      </c>
+      <c r="G2">
+        <v>-80.006343799999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3">
+        <v>427</v>
+      </c>
+      <c r="C3">
+        <v>1.47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3">
+        <v>40.457278449999997</v>
+      </c>
+      <c r="G3">
+        <v>-79.922635499334305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4">
+        <v>392</v>
+      </c>
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4">
+        <v>40.44040115</v>
+      </c>
+      <c r="G4">
+        <v>-79.986525223088606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5">
+        <v>329</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>40.451455000000003</v>
+      </c>
+      <c r="G5">
+        <v>-79.953158000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6">
+        <v>311</v>
+      </c>
+      <c r="C6">
+        <v>0.41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G6">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>2.15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7">
+        <v>40.456786910887999</v>
+      </c>
+      <c r="G7">
+        <v>-79.9794936168839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8">
+        <v>297</v>
+      </c>
+      <c r="C8">
+        <v>2.25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8">
+        <v>40.454374265181897</v>
+      </c>
+      <c r="G8">
+        <v>-79.982973096951696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9">
+        <v>268</v>
+      </c>
+      <c r="C9">
+        <v>2.65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9">
+        <v>40.454095000000002</v>
+      </c>
+      <c r="G9">
+        <v>-79.991095999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10">
+        <v>243</v>
+      </c>
+      <c r="C10">
+        <v>2.17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10">
+        <v>40.469953199999999</v>
+      </c>
+      <c r="G10">
+        <v>-79.963535699999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11">
+        <v>182</v>
+      </c>
+      <c r="C11">
+        <v>2.31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11">
+        <v>40.472145449999999</v>
+      </c>
+      <c r="G11">
+        <v>-79.964096754230098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="C12">
+        <v>0.84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12">
+        <v>40.450834</v>
+      </c>
+      <c r="G12">
+        <v>-79.954847999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>1.06</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13">
+        <v>40.4573252</v>
+      </c>
+      <c r="G13">
+        <v>-79.936371497774402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14">
+        <v>40.454782531745302</v>
+      </c>
+      <c r="G14">
+        <v>-79.982086957673005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>3.06</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15">
+        <v>40.438761499999998</v>
+      </c>
+      <c r="G15">
+        <v>-80.0008184777341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>0.41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G16">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>1.28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17">
+        <v>40.436892612373903</v>
+      </c>
+      <c r="G17">
+        <v>-79.965989465151395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>3.11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18">
+        <v>40.440604200000003</v>
+      </c>
+      <c r="G18">
+        <v>-80.001890849999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>3.06</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19">
+        <v>40.444140387937402</v>
+      </c>
+      <c r="G19">
+        <v>-80.000940310841003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>0.41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G20">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>1.77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21">
+        <v>40.423293357497101</v>
+      </c>
+      <c r="G21">
+        <v>-79.964867463018905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>0.41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23">
+        <v>40.447010200000001</v>
+      </c>
+      <c r="G23">
+        <v>-79.948535699999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>2.21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24">
+        <v>40.470880650447398</v>
+      </c>
+      <c r="G24">
+        <v>-79.963100813672099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26">
+        <v>0.68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26">
+        <v>40.437005599999999</v>
+      </c>
+      <c r="G26">
+        <v>-79.953420600000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27">
+        <v>2.44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27">
+        <v>40.476632702855198</v>
+      </c>
+      <c r="G27">
+        <v>-79.929745553821704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>